--- a/biology/Botanique/Schéma_régional_de_gestion_sylvicole/Schéma_régional_de_gestion_sylvicole.xlsx
+++ b/biology/Botanique/Schéma_régional_de_gestion_sylvicole/Schéma_régional_de_gestion_sylvicole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sch%C3%A9ma_r%C3%A9gional_de_gestion_sylvicole</t>
+          <t>Schéma_régional_de_gestion_sylvicole</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Après les ORF (Orientations régionales forestières), le schéma régional de gestion sylvicole (ou SRGS) est en France un document élaboré par le Centre régional de la propriété forestière (CRPF) et validé par la Commission régionale de la forêt et du bois (CRFB). Il donne des orientations et recommandations de gestion à suivre pour une gestion durable des forêts privées. Il doit être conforme au Programme régional de la forêt et du bois (PRFB) déclinaison régionale du Programme national de la forêt et du bois (PNFB). 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sch%C3%A9ma_r%C3%A9gional_de_gestion_sylvicole</t>
+          <t>Schéma_régional_de_gestion_sylvicole</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Divers textes de loi, principalement relatifs à des zonages règlementaires doivent de plus être respectés concernant par exemple :
 forêts de protection (Art L411 du code forestier);
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sch%C3%A9ma_r%C3%A9gional_de_gestion_sylvicole</t>
+          <t>Schéma_régional_de_gestion_sylvicole</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les SRGS sont un cadre pour les plans simples de gestion (ou PSG) établis par les propriétaires forestiers privés (pour 10 à 20 ans). Ces PSG doivent respecter le SRGS de la région concernée pour être agréés. 
 Différentes administrations veillent à leur application (DIREN ou futures DREAL, pour l'Environnement, et DDAF devenues DDEA pour l'Agriculture et forêt.. mais aussi DRAC et services départementaux architecture et patrimoine
